--- a/hostSystem/testData.xlsx
+++ b/hostSystem/testData.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2022AppleMathAPSC200Robots\hostSystem\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3298957-5D66-47FF-96BA-59B6A4C03642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -46,7 +40,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,32 +84,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -125,10 +114,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -166,71 +155,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -258,7 +247,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -281,11 +270,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -294,13 +283,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -310,7 +299,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -319,7 +308,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -328,7 +317,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -336,10 +325,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -404,414 +393,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
       <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.5</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.5</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1">
         <v>1.5</v>
       </c>
       <c r="B5" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1">
         <v>2.5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-0.25</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1">
-        <v>-0.25</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -820,7 +672,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -829,7 +681,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -838,7 +690,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -847,7 +699,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -856,7 +708,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -865,7 +717,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -874,7 +726,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -883,7 +735,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -892,7 +744,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -901,7 +753,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -910,7 +762,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -919,7 +771,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -928,7 +780,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -937,7 +789,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -946,7 +798,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -955,7 +807,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -964,7 +816,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -973,7 +825,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -982,7 +834,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -991,7 +843,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1000,7 +852,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1009,7 +861,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1018,7 +870,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1027,7 +879,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1036,7 +888,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1045,7 +897,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1054,7 +906,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1063,7 +915,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1072,7 +924,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1081,7 +933,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1090,7 +942,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1099,7 +951,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1108,7 +960,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1117,7 +969,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1126,7 +978,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1135,7 +987,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1144,7 +996,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1153,7 +1005,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1162,7 +1014,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1171,7 +1023,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1180,7 +1032,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1189,7 +1041,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1198,7 +1050,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1207,7 +1059,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1216,7 +1068,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1225,7 +1077,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>

--- a/hostSystem/testData.xlsx
+++ b/hostSystem/testData.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skell\Documents\2022AppleMathAPSC200Robots\hostSystem\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B19A57-2495-46E0-9B13-E6DB6E87E5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -40,8 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,26 +89,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -114,10 +125,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -155,71 +166,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -247,7 +258,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -270,11 +281,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -283,13 +294,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -299,7 +310,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -308,7 +319,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -317,7 +328,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -325,10 +336,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -393,313 +404,491 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="7" width="13.578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4">
         <v>0.5</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
         <v>0.25</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
         <v>0.5</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
         <v>0.5</v>
       </c>
-      <c r="G3" s="1">
+      <c r="D4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.5</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="G6" s="4">
         <v>0.5</v>
       </c>
-      <c r="F4" s="1">
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G7" s="4">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-0.25</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="G13" s="4">
         <v>0.75</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>-0.25</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4">
+        <v>8</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -708,7 +897,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -717,7 +906,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -726,7 +915,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -735,7 +924,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -744,7 +933,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -753,7 +942,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -762,7 +951,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -771,7 +960,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+    <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -780,7 +969,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -789,7 +978,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
+    <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -798,7 +987,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+    <row r="33" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -807,7 +996,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
+    <row r="34" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -816,7 +1005,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
+    <row r="35" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -825,7 +1014,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
+    <row r="36" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -834,7 +1023,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -843,7 +1032,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -852,7 +1041,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -861,7 +1050,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -870,7 +1059,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -879,7 +1068,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -888,7 +1077,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -897,7 +1086,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -906,7 +1095,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -915,7 +1104,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -924,7 +1113,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -933,7 +1122,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -942,7 +1131,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -951,7 +1140,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -960,7 +1149,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -969,7 +1158,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -978,7 +1167,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -987,7 +1176,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -996,7 +1185,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1005,7 +1194,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1014,7 +1203,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1023,7 +1212,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1032,7 +1221,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1041,7 +1230,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1050,7 +1239,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1059,7 +1248,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1068,7 +1257,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1077,7 +1266,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>

--- a/hostSystem/testData.xlsx
+++ b/hostSystem/testData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skell\Documents\2022AppleMathAPSC200Robots\hostSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B19A57-2495-46E0-9B13-E6DB6E87E5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B85B4E-33EB-4CED-95E7-9F838B3189FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -450,19 +450,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="D2" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="4">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -473,19 +473,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="4">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.5</v>
       </c>
-      <c r="F3" s="4">
-        <v>0.25</v>
-      </c>
       <c r="G3" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -496,19 +496,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="D4" s="4">
-        <v>0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" s="4">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="F4" s="4">
         <v>0.5</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -519,10 +519,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="4">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D6" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F6" s="4">
         <v>0.5</v>
       </c>
       <c r="G6" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="4">
         <v>0.5</v>
       </c>
       <c r="G7" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -588,19 +588,19 @@
         <v>0</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F8" s="4">
         <v>0.5</v>
       </c>
       <c r="G8" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -611,273 +611,119 @@
         <v>0</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="4">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>-0.25</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>-0.5</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>-0.5</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.75</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>-0.5</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>-0.5</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.25</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="4">
-        <v>7</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>-0.5</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>-0.25</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="4">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="4">
-        <v>9</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4"/>
